--- a/ExperimentRanV2.xlsx
+++ b/ExperimentRanV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pongpanod.san.adm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pongpanod.san.adm/Desktop/Pongpanod.san/chula/pun_master_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9289F2-FE8B-3A41-85AA-08A7210C8DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5FD53-B564-CF44-A823-FA44D22F5B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{A4F44DEF-6534-A348-9DB6-FB2CC971C666}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{A4F44DEF-6534-A348-9DB6-FB2CC971C666}"/>
   </bookViews>
   <sheets>
     <sheet name="ExperimentRan" sheetId="2" r:id="rId1"/>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BDD7B2-8D0D-F34D-BB5C-EC9FB270F112}">
   <dimension ref="A1:CW421"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29925,7 +29925,7 @@
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -29945,7 +29945,7 @@
         <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -29965,7 +29965,7 @@
         <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -29985,7 +29985,7 @@
         <v>4</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -30005,7 +30005,7 @@
         <v>5</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -30025,7 +30025,7 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="G354">
         <f>SUM(I3:I351)</f>
-        <v>13090</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="355" spans="6:8" x14ac:dyDescent="0.2">
@@ -33628,7 +33628,7 @@
     <row r="356" spans="6:8" x14ac:dyDescent="0.2">
       <c r="G356" s="1">
         <f>(G354/G355)*100</f>
-        <v>44.126074498567334</v>
+        <v>45.845272206303726</v>
       </c>
     </row>
     <row r="359" spans="6:8" x14ac:dyDescent="0.2">
@@ -35294,7 +35294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BDDB10-1BB5-9949-AEA3-4BCDF704C767}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:P27"/>
     </sheetView>
   </sheetViews>
@@ -36669,21 +36669,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H27">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
-    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36705,9 +36691,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J27">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36720,6 +36704,28 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J27">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K27">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36742,8 +36748,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K27">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="L1:L27">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36766,8 +36772,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L27">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="M1:M27">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36790,8 +36796,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="N1:N27">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36814,8 +36820,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N27">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="O1:O27">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36838,8 +36844,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O27">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="P1:P27">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36852,18 +36858,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P27">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P27">
-    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
